--- a/biology/Médecine/Muscle_adducteur_de_l'hallux/Muscle_adducteur_de_l'hallux.xlsx
+++ b/biology/Médecine/Muscle_adducteur_de_l'hallux/Muscle_adducteur_de_l'hallux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle adducteur de l'hallux (Musculus adductor hallucis) ou anciennement muscle abducteur du gros orteil[1] est un muscle du membre inférieur situé dans la loge plantaire du pied.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle adducteur de l'hallux (Musculus adductor hallucis) ou anciennement muscle abducteur du gros orteil est un muscle du membre inférieur situé dans la loge plantaire du pied.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les ouvrages d’anatomie plus anciens il était appelé muscle abducteur du gros orteil, en effet son action a pour effet d'éloigner le gros orteil de l’axe du corps comme le veut la définition de l’abduction : mouvement qui éloigne un membre de l’axe du corps.
 Pour l'anatomie contemporaine, l'axe de référence pour l'adduction et l'abduction au niveau de la main et du pied est l'axe passant au milieu de la main ou du pied passant par le troisième doigt.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle adducteur de l'hallux est un muscle intrinsèque du pied. 
 Il est composé de deux chefs :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef oblique du muscle adducteur de l'hallux
-Le chef oblique se fixe sur la crête de l'os cuboïde, la face plantaire du cunéiforme latéral et sur les têtes des troisième et quatrième métatarsiens.
-Chef transverse du muscle adducteur de l'hallux
-Le chef transverse nait par trois languettes de la face inférieure de la capsule articulaire des trois dernières articulations métatarso-phalangiennes (quelquefois uniquement de la troisième et quatrième).
+          <t>Chef oblique du muscle adducteur de l'hallux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef oblique se fixe sur la crête de l'os cuboïde, la face plantaire du cunéiforme latéral et sur les têtes des troisième et quatrième métatarsiens.
 </t>
         </is>
       </c>
@@ -594,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le chef oblique se dirige en avant et médialement. Le chef transverse se dirige médialement. Les deux chefs fusionnent pour former un tendon qui s'oriente en avant et médialement.
+          <t>Chef transverse du muscle adducteur de l'hallux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef transverse nait par trois languettes de la face inférieure de la capsule articulaire des trois dernières articulations métatarso-phalangiennes (quelquefois uniquement de la troisième et quatrième).
 </t>
         </is>
       </c>
@@ -625,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,12 +665,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tendon s'insère sur le sésamoïde latéral de la phalange proximale de l'hallux et sur le bord latéral de cette dernière.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef oblique se dirige en avant et médialement. Le chef transverse se dirige médialement. Les deux chefs fusionnent pour former un tendon qui s'oriente en avant et médialement.
 </t>
         </is>
       </c>
@@ -656,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,12 +698,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle adducteur de l'hallux est innervé par la branche profonde du nerf plantaire latéral.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tendon s'insère sur le sésamoïde latéral de la phalange proximale de l'hallux et sur le bord latéral de cette dernière.
 </t>
         </is>
       </c>
@@ -687,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,12 +731,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle adducteur de l'hallux est vascularisé par des collatérales des artères plantaires.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle adducteur de l'hallux est innervé par la branche profonde du nerf plantaire latéral.
 </t>
         </is>
       </c>
@@ -718,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_adducteur_de_l%27hallux</t>
+          <t>Muscle_adducteur_de_l'hallux</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -733,10 +764,45 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle adducteur de l'hallux est vascularisé par des collatérales des artères plantaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_adducteur_de_l'hallux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_adducteur_de_l%27hallux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle adducteur de l'hallux est adducteur dans le référentiel propre au pied et fléchisseur de l'hallux.
 </t>
